--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Apply\Agent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77290A83-7752-4A74-AB03-D235BA4A7D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E515611-0EAB-424A-8EC3-A1B99613C1B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BF8AF227-F215-4C38-ADD5-3F987364B5C3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C2833026-D90C-4043-B9B7-648727ADF8B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,153 +34,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="7">
   <si>
-    <t>FirstName</t>
+    <t>Name</t>
   </si>
   <si>
-    <t>Phone</t>
+    <t>Transaction ID</t>
   </si>
   <si>
-    <t>Notes</t>
+    <t>Amount</t>
   </si>
   <si>
-    <t>John</t>
+    <t>Date</t>
   </si>
   <si>
-    <t>Follow up next week</t>
+    <t>Vikram</t>
   </si>
   <si>
-    <t>Alice</t>
+    <t>Nikhil</t>
   </si>
   <si>
-    <t>Interested in product demo</t>
-  </si>
-  <si>
-    <t>Bob</t>
-  </si>
-  <si>
-    <t>Requested pricing details</t>
-  </si>
-  <si>
-    <t>Eve</t>
-  </si>
-  <si>
-    <t>Sent proposal</t>
-  </si>
-  <si>
-    <t>Charlie</t>
-  </si>
-  <si>
-    <t>Needs contract review</t>
-  </si>
-  <si>
-    <t>Grace</t>
-  </si>
-  <si>
-    <t>Waiting for approval</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>Schedule meeting</t>
-  </si>
-  <si>
-    <t>Mia</t>
-  </si>
-  <si>
-    <t>Asked about features</t>
-  </si>
-  <si>
-    <t>Leo</t>
-  </si>
-  <si>
-    <t>Provided training materials</t>
-  </si>
-  <si>
-    <t>Zara</t>
-  </si>
-  <si>
-    <t>Requested support ticket</t>
-  </si>
-  <si>
-    <t>Oliver</t>
-  </si>
-  <si>
-    <t>Asked for refund</t>
-  </si>
-  <si>
-    <t>Sophia</t>
-  </si>
-  <si>
-    <t>Left voicemail</t>
-  </si>
-  <si>
-    <t>Liam</t>
-  </si>
-  <si>
-    <t>Follow up via email</t>
-  </si>
-  <si>
-    <t>Emma</t>
-  </si>
-  <si>
-    <t>Interested in upgrade</t>
-  </si>
-  <si>
-    <t>Noah</t>
-  </si>
-  <si>
-    <t>Set demo appointment</t>
-  </si>
-  <si>
-    <t>Ava</t>
-  </si>
-  <si>
-    <t>Needs documentation</t>
-  </si>
-  <si>
-    <t>James</t>
-  </si>
-  <si>
-    <t>Requested custom feature</t>
-  </si>
-  <si>
-    <t>Isabella</t>
-  </si>
-  <si>
-    <t>Interested in partnership</t>
-  </si>
-  <si>
-    <t>Lucas</t>
-  </si>
-  <si>
-    <t>Provided feedback</t>
-  </si>
-  <si>
-    <t>Amelia</t>
-  </si>
-  <si>
-    <t>Requested callback</t>
-  </si>
-  <si>
-    <t>Mason</t>
-  </si>
-  <si>
-    <t>Discussed payment options</t>
-  </si>
-  <si>
-    <t>Evelyn</t>
-  </si>
-  <si>
-    <t>Schedule training session</t>
-  </si>
-  <si>
-    <t>Logan</t>
-  </si>
-  <si>
-    <t>Needs additional licenses</t>
+    <t>Harsha</t>
   </si>
 </sst>
 </file>
@@ -224,13 +98,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -545,280 +434,243 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29AE7462-6323-4517-A4A3-B158E20D0552}">
-  <dimension ref="A1:C24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10960D5F-CF9F-4F79-BE54-A655CB9BC188}">
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="27.33203125" customWidth="1"/>
-    <col min="3" max="3" width="29" customWidth="1"/>
+    <col min="1" max="1" width="12.21875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="27" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1">
-        <v>1234567890</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>20250607001</v>
+      </c>
+      <c r="C2" s="6">
+        <v>52300</v>
+      </c>
+      <c r="D2" s="4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1">
-        <v>2345678901</v>
-      </c>
-      <c r="C3" s="1" t="s">
+        <v>20250607002</v>
+      </c>
+      <c r="C3" s="6">
+        <v>48750</v>
+      </c>
+      <c r="D3" s="4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="B4" s="1">
-        <v>3456789012</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>20250607003</v>
+      </c>
+      <c r="C4" s="6">
+        <v>54100</v>
+      </c>
+      <c r="D4" s="4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>4567890123</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>20250607004</v>
+      </c>
+      <c r="C5" s="6">
+        <v>51900</v>
+      </c>
+      <c r="D5" s="4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>5678901234</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>20250607005</v>
+      </c>
+      <c r="C6" s="6">
+        <v>49500</v>
+      </c>
+      <c r="D6" s="4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>6789012345</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>20250607006</v>
+      </c>
+      <c r="C7" s="6">
+        <v>53000</v>
+      </c>
+      <c r="D7" s="4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1">
-        <v>7890123456</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>20250607007</v>
+      </c>
+      <c r="C8" s="6">
+        <v>52750</v>
+      </c>
+      <c r="D8" s="4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B9" s="1">
-        <v>8901234567</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>20250607008</v>
+      </c>
+      <c r="C9" s="6">
+        <v>47900</v>
+      </c>
+      <c r="D9" s="4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1">
-        <v>9012345678</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>20250607009</v>
+      </c>
+      <c r="C10" s="6">
+        <v>55200</v>
+      </c>
+      <c r="D10" s="4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B11" s="1">
-        <v>1122334455</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>20250607010</v>
+      </c>
+      <c r="C11" s="6">
+        <v>50500</v>
+      </c>
+      <c r="D11" s="4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B12" s="1">
-        <v>2233445566</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>20250607011</v>
+      </c>
+      <c r="C12" s="6">
+        <v>48300</v>
+      </c>
+      <c r="D12" s="4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B13" s="1">
-        <v>3344556677</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>20250607012</v>
+      </c>
+      <c r="C13" s="6">
+        <v>54700</v>
+      </c>
+      <c r="D13" s="4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="B14" s="1">
-        <v>4455667788</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>20250607013</v>
+      </c>
+      <c r="C14" s="6">
+        <v>53100</v>
+      </c>
+      <c r="D14" s="4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B15" s="1">
-        <v>5566778899</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>20250607014</v>
+      </c>
+      <c r="C15" s="6">
+        <v>49950</v>
+      </c>
+      <c r="D15" s="4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="B16" s="1">
-        <v>6677889900</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="1">
-        <v>7788990011</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="1">
-        <v>8899001122</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="1">
-        <v>9900112233</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="1">
-        <v>1011121314</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="1">
-        <v>1112131415</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="1">
-        <v>1213141516</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="1">
-        <v>1314151617</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="1">
-        <v>1415161718</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>48</v>
+        <v>20250607015</v>
+      </c>
+      <c r="C16" s="6">
+        <v>52600</v>
+      </c>
+      <c r="D16" s="4">
+        <v>45815</v>
       </c>
     </row>
   </sheetData>
